--- a/src/main/resources/xlsx/pcs/re-3_5.xlsx
+++ b/src/main/resources/xlsx/pcs/re-3_5.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分党委名称：name</t>
+    <t>二级党组织名称：name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
